--- a/Code/Results/Cases/Case_4_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.76948577712767</v>
+        <v>0.9192037738362728</v>
       </c>
       <c r="C2">
-        <v>1.008030605400847</v>
+        <v>0.3034642044029852</v>
       </c>
       <c r="D2">
-        <v>0.2075310912928643</v>
+        <v>0.0789843654385578</v>
       </c>
       <c r="E2">
-        <v>0.1676419471907877</v>
+        <v>0.09074448073276642</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.315443896469446</v>
+        <v>0.8581293149973135</v>
       </c>
       <c r="H2">
-        <v>0.7253981840490269</v>
+        <v>0.8286167870744805</v>
       </c>
       <c r="I2">
-        <v>0.5442361827598106</v>
+        <v>0.6040612733691333</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.092534687610133</v>
+        <v>0.3909843463112708</v>
       </c>
       <c r="N2">
-        <v>0.5335596140166494</v>
+        <v>1.115706564159545</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.393446522342231</v>
+        <v>0.8148995754344242</v>
       </c>
       <c r="C3">
-        <v>0.8701133634072846</v>
+        <v>0.2649955500315855</v>
       </c>
       <c r="D3">
-        <v>0.1791263933520924</v>
+        <v>0.07156238137076798</v>
       </c>
       <c r="E3">
-        <v>0.1458353483923602</v>
+        <v>0.08585969797372783</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.159714726013334</v>
+        <v>0.8251535960428669</v>
       </c>
       <c r="H3">
-        <v>0.6609486197600916</v>
+        <v>0.819283179797452</v>
       </c>
       <c r="I3">
-        <v>0.5001586908890729</v>
+        <v>0.5984475280528017</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9418257169238089</v>
+        <v>0.351131231888715</v>
       </c>
       <c r="N3">
-        <v>0.578199947270722</v>
+        <v>1.132679338412453</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.164822799458648</v>
+        <v>0.7510506840767448</v>
       </c>
       <c r="C4">
-        <v>0.7864513726038354</v>
+        <v>0.2413982762189448</v>
       </c>
       <c r="D4">
-        <v>0.1619705202680706</v>
+        <v>0.06704538856395459</v>
       </c>
       <c r="E4">
-        <v>0.1328460089801098</v>
+        <v>0.08293268238793416</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.067433390587382</v>
+        <v>0.8056340871627583</v>
       </c>
       <c r="H4">
-        <v>0.6231804802673935</v>
+        <v>0.814119184211151</v>
       </c>
       <c r="I4">
-        <v>0.474702682372147</v>
+        <v>0.5954659778289368</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8506683724855719</v>
+        <v>0.3268221343125433</v>
       </c>
       <c r="N4">
-        <v>0.6069984701823401</v>
+        <v>1.143622773648699</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.072130619090842</v>
+        <v>0.725080035947343</v>
       </c>
       <c r="C5">
-        <v>0.7525715559787045</v>
+        <v>0.2317873506584931</v>
       </c>
       <c r="D5">
-        <v>0.1550412428159547</v>
+        <v>0.06521463384248705</v>
       </c>
       <c r="E5">
-        <v>0.1276411167145568</v>
+        <v>0.08175782585947644</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.030576935964675</v>
+        <v>0.7978610902309384</v>
       </c>
       <c r="H5">
-        <v>0.6082013303581277</v>
+        <v>0.8121567391399083</v>
       </c>
       <c r="I5">
-        <v>0.4646968946583812</v>
+        <v>0.5943673224641302</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8138166069748465</v>
+        <v>0.3169557691720541</v>
       </c>
       <c r="N5">
-        <v>0.6190665231503569</v>
+        <v>1.148213243699061</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.056765113620543</v>
+        <v>0.7207705303457885</v>
       </c>
       <c r="C6">
-        <v>0.7469575123217851</v>
+        <v>0.2301917596261092</v>
       </c>
       <c r="D6">
-        <v>0.1538941092112793</v>
+        <v>0.06491123582472369</v>
       </c>
       <c r="E6">
-        <v>0.1267818480021958</v>
+        <v>0.08156381741032348</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.02449968308909</v>
+        <v>0.7965812963822003</v>
       </c>
       <c r="H6">
-        <v>0.6057377536066042</v>
+        <v>0.8118394305222836</v>
       </c>
       <c r="I6">
-        <v>0.4630566381184238</v>
+        <v>0.5941918997644677</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8077138388640606</v>
+        <v>0.3153198507294235</v>
       </c>
       <c r="N6">
-        <v>0.621090023438958</v>
+        <v>1.148983385507606</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.163570922922304</v>
+        <v>0.7507002400291753</v>
       </c>
       <c r="C7">
-        <v>0.7859936492466204</v>
+        <v>0.2412686397418895</v>
       </c>
       <c r="D7">
-        <v>0.1618768313524583</v>
+        <v>0.06702065822840098</v>
       </c>
       <c r="E7">
-        <v>0.1327754715733036</v>
+        <v>0.08291676560084227</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.06693341309267</v>
+        <v>0.8055285256353386</v>
       </c>
       <c r="H7">
-        <v>0.6229768524267172</v>
+        <v>0.8140921441710702</v>
       </c>
       <c r="I7">
-        <v>0.4745662980418999</v>
+        <v>0.5954506907525641</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8501702442925563</v>
+        <v>0.326688912823947</v>
       </c>
       <c r="N7">
-        <v>0.6071598995320766</v>
+        <v>1.143684152671735</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.63929682580266</v>
+        <v>0.8831989790732564</v>
       </c>
       <c r="C8">
-        <v>0.9602378348077423</v>
+        <v>0.2901951782383492</v>
       </c>
       <c r="D8">
-        <v>0.1976719574771408</v>
+        <v>0.07641685083952154</v>
       </c>
       <c r="E8">
-        <v>0.1600323207016388</v>
+        <v>0.08904506064516937</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.260999249821509</v>
+        <v>0.8466072547403201</v>
       </c>
       <c r="H8">
-        <v>0.7027751463172649</v>
+        <v>0.8252805235282494</v>
       </c>
       <c r="I8">
-        <v>0.5286816421452087</v>
+        <v>0.6020286790651781</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.040251988474516</v>
+        <v>0.3772091885654518</v>
       </c>
       <c r="N8">
-        <v>0.5486526728732812</v>
+        <v>1.121450208322694</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.59497960431338</v>
+        <v>1.144610042185093</v>
       </c>
       <c r="C9">
-        <v>1.312194556425027</v>
+        <v>0.3863486459703722</v>
       </c>
       <c r="D9">
-        <v>0.2706094138804787</v>
+        <v>0.09516833612130426</v>
       </c>
       <c r="E9">
-        <v>0.2172695208712838</v>
+        <v>0.1016477395342221</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.67253332417917</v>
+        <v>0.9330154245565154</v>
       </c>
       <c r="H9">
-        <v>0.8756675237260652</v>
+        <v>0.8517492849637733</v>
       </c>
       <c r="I9">
-        <v>0.6493756631796259</v>
+        <v>0.6186513605328656</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.426498850128738</v>
+        <v>0.4775910859238763</v>
       </c>
       <c r="N9">
-        <v>0.4457791971376786</v>
+        <v>1.082007065851856</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.318524968457325</v>
+        <v>1.337708169686266</v>
       </c>
       <c r="C10">
-        <v>1.580441832312374</v>
+        <v>0.4571670742202514</v>
       </c>
       <c r="D10">
-        <v>0.3266218676901502</v>
+        <v>0.1091548333229753</v>
       </c>
       <c r="E10">
-        <v>0.2625921049319189</v>
+        <v>0.1112809510768997</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.000767477562533</v>
+        <v>1.000184415159566</v>
       </c>
       <c r="H10">
-        <v>1.015954644588106</v>
+        <v>0.8740022600259181</v>
       </c>
       <c r="I10">
-        <v>0.7497589628806267</v>
+        <v>0.6331794395959207</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.722508734755976</v>
+        <v>0.5521979964106265</v>
       </c>
       <c r="N10">
-        <v>0.3787234616617496</v>
+        <v>1.055582499845588</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.654258981152338</v>
+        <v>1.425796951753512</v>
       </c>
       <c r="C11">
-        <v>1.705452316955984</v>
+        <v>0.4894328082815491</v>
       </c>
       <c r="D11">
-        <v>0.3528222660472409</v>
+        <v>0.1155657445505653</v>
       </c>
       <c r="E11">
-        <v>0.2841703735780428</v>
+        <v>0.1157483972780753</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.157506421338496</v>
+        <v>1.031567299499017</v>
       </c>
       <c r="H11">
-        <v>1.083492297235267</v>
+        <v>0.8847452899994437</v>
       </c>
       <c r="I11">
-        <v>0.7986927984352121</v>
+        <v>0.6403014630517774</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.860860291676488</v>
+        <v>0.586337358429688</v>
       </c>
       <c r="N11">
-        <v>0.3504028805650741</v>
+        <v>1.044120241954776</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.782523970605837</v>
+        <v>1.459190501041064</v>
       </c>
       <c r="C12">
-        <v>1.753304048316977</v>
+        <v>0.501658932514772</v>
       </c>
       <c r="D12">
-        <v>0.3628655326899519</v>
+        <v>0.1180005245195304</v>
       </c>
       <c r="E12">
-        <v>0.2925038715858364</v>
+        <v>0.1174526562463285</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.218099464532258</v>
+        <v>1.043572118689696</v>
       </c>
       <c r="H12">
-        <v>1.109682494996264</v>
+        <v>0.8889033318841371</v>
       </c>
       <c r="I12">
-        <v>0.8177623942315435</v>
+        <v>0.6430729588099666</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.913880946016718</v>
+        <v>0.5992947394345691</v>
       </c>
       <c r="N12">
-        <v>0.3400249870807315</v>
+        <v>1.039860485691165</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.754846406507568</v>
+        <v>1.451996980326044</v>
       </c>
       <c r="C13">
-        <v>1.742974048909844</v>
+        <v>0.4990254619008283</v>
       </c>
       <c r="D13">
-        <v>0.3606968062678959</v>
+        <v>0.1174758326027785</v>
       </c>
       <c r="E13">
-        <v>0.2907014664008614</v>
+        <v>0.117085051712543</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.20499156612297</v>
+        <v>1.040981264106648</v>
       </c>
       <c r="H13">
-        <v>1.104013218423802</v>
+        <v>0.8880038135993118</v>
       </c>
       <c r="I13">
-        <v>0.8136302239455233</v>
+        <v>0.642472740350776</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.902432272508392</v>
+        <v>0.5965028096115077</v>
       </c>
       <c r="N13">
-        <v>0.3422440778833149</v>
+        <v>1.040774301646863</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.664787648240974</v>
+        <v>1.428543529042088</v>
       </c>
       <c r="C14">
-        <v>1.709378305836196</v>
+        <v>0.4904384993213284</v>
       </c>
       <c r="D14">
-        <v>0.3536459792219944</v>
+        <v>0.1157659120656547</v>
       </c>
       <c r="E14">
-        <v>0.2848525731629081</v>
+        <v>0.1158883549000009</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.162465543027565</v>
+        <v>1.032552511621532</v>
       </c>
       <c r="H14">
-        <v>1.085634155259754</v>
+        <v>0.8850855688809816</v>
       </c>
       <c r="I14">
-        <v>0.8002504256096543</v>
+        <v>0.6405279774434831</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.865209096798679</v>
+        <v>0.5874027735338672</v>
       </c>
       <c r="N14">
-        <v>0.3495419392371595</v>
+        <v>1.043768168229292</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.609777000690087</v>
+        <v>1.414182352111425</v>
       </c>
       <c r="C15">
-        <v>1.688869430549062</v>
+        <v>0.4851797690985791</v>
       </c>
       <c r="D15">
-        <v>0.349343578117157</v>
+        <v>0.1147194663761155</v>
       </c>
       <c r="E15">
-        <v>0.2812918627648671</v>
+        <v>0.1151569840754973</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.136584017099352</v>
+        <v>1.027405443846817</v>
       </c>
       <c r="H15">
-        <v>1.074459117450431</v>
+        <v>0.8833097877864589</v>
       </c>
       <c r="I15">
-        <v>0.7921273712182781</v>
+        <v>0.6393464837948315</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.842494009695258</v>
+        <v>0.5818326086043584</v>
       </c>
       <c r="N15">
-        <v>0.3540582516426092</v>
+        <v>1.045612527839097</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.296731616723264</v>
+        <v>1.331956395721988</v>
       </c>
       <c r="C16">
-        <v>1.572339065465712</v>
+        <v>0.4550594904988543</v>
       </c>
       <c r="D16">
-        <v>0.3249256042498132</v>
+        <v>0.108736851539291</v>
       </c>
       <c r="E16">
-        <v>0.2612032354750937</v>
+        <v>0.1109907318600776</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.99068779773981</v>
+        <v>0.9981502744867612</v>
       </c>
       <c r="H16">
-        <v>1.011622384034666</v>
+        <v>0.8733127166123893</v>
       </c>
       <c r="I16">
-        <v>0.7466325299278083</v>
+        <v>0.6327243882448528</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.713549625982765</v>
+        <v>0.549971002609638</v>
       </c>
       <c r="N16">
-        <v>0.3806209000329126</v>
+        <v>1.056342860571281</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.106498732754972</v>
+        <v>1.281577276372275</v>
       </c>
       <c r="C17">
-        <v>1.501671942663165</v>
+        <v>0.4365949176651611</v>
       </c>
       <c r="D17">
-        <v>0.3101426475267601</v>
+        <v>0.1050792091240851</v>
       </c>
       <c r="E17">
-        <v>0.2491417499067481</v>
+        <v>0.1084569004234339</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.903202097015708</v>
+        <v>0.9804163801074139</v>
       </c>
       <c r="H17">
-        <v>0.9740808368689216</v>
+        <v>0.8673391598455282</v>
       </c>
       <c r="I17">
-        <v>0.7196068083998597</v>
+        <v>0.628793904761082</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.635459020245492</v>
+        <v>0.5304767663053127</v>
       </c>
       <c r="N17">
-        <v>0.3974973076492674</v>
+        <v>1.063068914464669</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.99768987235251</v>
+        <v>1.252623792523025</v>
       </c>
       <c r="C18">
-        <v>1.46130126708772</v>
+        <v>0.4259792612343176</v>
       </c>
       <c r="D18">
-        <v>0.3017064423682712</v>
+        <v>0.1029799749822899</v>
       </c>
       <c r="E18">
-        <v>0.2422931143780147</v>
+        <v>0.107007515077008</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.853569876421432</v>
+        <v>0.9702940791732715</v>
       </c>
       <c r="H18">
-        <v>0.9528327425310863</v>
+        <v>0.8639616449789855</v>
       </c>
       <c r="I18">
-        <v>0.7043653831478522</v>
+        <v>0.6265814471496043</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.590884569038437</v>
+        <v>0.5192830056827091</v>
       </c>
       <c r="N18">
-        <v>0.4074075071148506</v>
+        <v>1.066990095373878</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.960948313343124</v>
+        <v>1.24282461461604</v>
       </c>
       <c r="C19">
-        <v>1.447677331163334</v>
+        <v>0.4223857679136245</v>
       </c>
       <c r="D19">
-        <v>0.2988610015579383</v>
+        <v>0.1022699864594188</v>
       </c>
       <c r="E19">
-        <v>0.2399888550589395</v>
+        <v>0.1065181450623172</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.836878407295188</v>
+        <v>0.9668801430184999</v>
       </c>
       <c r="H19">
-        <v>0.9456954457675977</v>
+        <v>0.862828070420278</v>
       </c>
       <c r="I19">
-        <v>0.6992549763903853</v>
+        <v>0.6258406116075506</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.575848229492934</v>
+        <v>0.5154961986340822</v>
       </c>
       <c r="N19">
-        <v>0.4107969291779305</v>
+        <v>1.06832674867864</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.126685168752203</v>
+        <v>1.286937808353912</v>
       </c>
       <c r="C20">
-        <v>1.509165524710227</v>
+        <v>0.4385600146027286</v>
       </c>
       <c r="D20">
-        <v>0.3117093050335029</v>
+        <v>0.1054680999276201</v>
       </c>
       <c r="E20">
-        <v>0.2504163596063762</v>
+        <v>0.1087258003764404</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.912442796833318</v>
+        <v>0.9822961217801378</v>
       </c>
       <c r="H20">
-        <v>0.9780409638220533</v>
+        <v>0.8679690143495407</v>
       </c>
       <c r="I20">
-        <v>0.7224519031469967</v>
+        <v>0.6292073120701076</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.643735912405901</v>
+        <v>0.532550009082982</v>
       </c>
       <c r="N20">
-        <v>0.3956795183245063</v>
+        <v>1.062347474388535</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.691207856563096</v>
+        <v>1.435431387366009</v>
       </c>
       <c r="C21">
-        <v>1.719231542828481</v>
+        <v>0.4929604821854809</v>
       </c>
       <c r="D21">
-        <v>0.3557135174103649</v>
+        <v>0.1162679630931649</v>
       </c>
       <c r="E21">
-        <v>0.2865659219397259</v>
+        <v>0.1162395113821972</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.174921347830292</v>
+        <v>1.035024947365883</v>
       </c>
       <c r="H21">
-        <v>1.091015145312753</v>
+        <v>0.8859402826628298</v>
       </c>
       <c r="I21">
-        <v>0.8041651597778881</v>
+        <v>0.6410971724178225</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.876124499021714</v>
+        <v>0.5900748668885996</v>
       </c>
       <c r="N21">
-        <v>0.3473886962625379</v>
+        <v>1.042886601802635</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.066843718456369</v>
+        <v>1.532692074913371</v>
       </c>
       <c r="C22">
-        <v>1.859559284898808</v>
+        <v>0.5285600253384928</v>
       </c>
       <c r="D22">
-        <v>0.3851926127280478</v>
+        <v>0.1233677938461852</v>
       </c>
       <c r="E22">
-        <v>0.3111513343687946</v>
+        <v>0.1212233439705344</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.353787176136365</v>
+        <v>1.070191269799636</v>
       </c>
       <c r="H22">
-        <v>1.168481009109627</v>
+        <v>0.8982098355002393</v>
       </c>
       <c r="I22">
-        <v>0.8607525705693604</v>
+        <v>0.6493027146487904</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.031731184845725</v>
+        <v>0.627843253693058</v>
       </c>
       <c r="N22">
-        <v>0.3178657951779194</v>
+        <v>1.030638697033595</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.865681316874884</v>
+        <v>1.480762637146142</v>
       </c>
       <c r="C23">
-        <v>1.784355022976172</v>
+        <v>0.5095555007423513</v>
       </c>
       <c r="D23">
-        <v>0.3693865688655791</v>
+        <v>0.1195746338030403</v>
       </c>
       <c r="E23">
-        <v>0.2979329647683855</v>
+        <v>0.1185565902196899</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.257590393485515</v>
+        <v>1.051357227201862</v>
       </c>
       <c r="H23">
-        <v>1.126774489654963</v>
+        <v>0.8916131284816231</v>
       </c>
       <c r="I23">
-        <v>0.8302342172981412</v>
+        <v>0.6448832245247118</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.94830381061287</v>
+        <v>0.6076695167069488</v>
       </c>
       <c r="N23">
-        <v>0.3334243575192133</v>
+        <v>1.037132395104564</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.117557154720203</v>
+        <v>1.284514280306439</v>
       </c>
       <c r="C24">
-        <v>1.505776882606426</v>
+        <v>0.4376715947265666</v>
       </c>
       <c r="D24">
-        <v>0.3110008251815799</v>
+        <v>0.1052922712162285</v>
       </c>
       <c r="E24">
-        <v>0.2498398434868747</v>
+        <v>0.1086042078419567</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.90826301946052</v>
+        <v>0.9814460628529957</v>
       </c>
       <c r="H24">
-        <v>0.9762495527736235</v>
+        <v>0.86768408036869</v>
       </c>
       <c r="I24">
-        <v>0.7211647188952526</v>
+        <v>0.6290202635642643</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.639992937273334</v>
+        <v>0.5316126533016501</v>
       </c>
       <c r="N24">
-        <v>0.3965006962581619</v>
+        <v>1.06267346838758</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.333276646730155</v>
+        <v>1.073714411993649</v>
       </c>
       <c r="C25">
-        <v>1.215553723288906</v>
+        <v>0.3603093929914394</v>
       </c>
       <c r="D25">
-        <v>0.2505113514170745</v>
+        <v>0.09005954510001857</v>
       </c>
       <c r="E25">
-        <v>0.2012874866377743</v>
+        <v>0.09817396096432418</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.557211046853212</v>
+        <v>0.9090011150524901</v>
       </c>
       <c r="H25">
-        <v>0.8268242581744119</v>
+        <v>0.8440992916344499</v>
       </c>
       <c r="I25">
-        <v>0.6148916555492718</v>
+        <v>0.6137511959724549</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.320177626115893</v>
+        <v>0.450288873531079</v>
       </c>
       <c r="N25">
-        <v>0.4722147563339547</v>
+        <v>1.092230371868256</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9192037738362728</v>
+        <v>2.769485777127557</v>
       </c>
       <c r="C2">
-        <v>0.3034642044029852</v>
+        <v>1.008030605400705</v>
       </c>
       <c r="D2">
-        <v>0.0789843654385578</v>
+        <v>0.2075310912930632</v>
       </c>
       <c r="E2">
-        <v>0.09074448073276642</v>
+        <v>0.1676419471908019</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8581293149973135</v>
+        <v>1.315443896469475</v>
       </c>
       <c r="H2">
-        <v>0.8286167870744805</v>
+        <v>0.7253981840489985</v>
       </c>
       <c r="I2">
-        <v>0.6040612733691333</v>
+        <v>0.5442361827598177</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3909843463112708</v>
+        <v>1.092534687610119</v>
       </c>
       <c r="N2">
-        <v>1.115706564159545</v>
+        <v>0.5335596140165855</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8148995754344242</v>
+        <v>2.393446522342174</v>
       </c>
       <c r="C3">
-        <v>0.2649955500315855</v>
+        <v>0.8701133634072278</v>
       </c>
       <c r="D3">
-        <v>0.07156238137076798</v>
+        <v>0.1791263933519645</v>
       </c>
       <c r="E3">
-        <v>0.08585969797372783</v>
+        <v>0.1458353483923709</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8251535960428669</v>
+        <v>1.159714726013362</v>
       </c>
       <c r="H3">
-        <v>0.819283179797452</v>
+        <v>0.6609486197599779</v>
       </c>
       <c r="I3">
-        <v>0.5984475280528017</v>
+        <v>0.5001586908890587</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.351131231888715</v>
+        <v>0.941825716923816</v>
       </c>
       <c r="N3">
-        <v>1.132679338412453</v>
+        <v>0.5781999472707167</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7510506840767448</v>
+        <v>2.164822799458534</v>
       </c>
       <c r="C4">
-        <v>0.2413982762189448</v>
+        <v>0.7864513726040627</v>
       </c>
       <c r="D4">
-        <v>0.06704538856395459</v>
+        <v>0.16197052026817</v>
       </c>
       <c r="E4">
-        <v>0.08293268238793416</v>
+        <v>0.1328460089801098</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8056340871627583</v>
+        <v>1.067433390587382</v>
       </c>
       <c r="H4">
-        <v>0.814119184211151</v>
+        <v>0.6231804802673935</v>
       </c>
       <c r="I4">
-        <v>0.5954659778289368</v>
+        <v>0.4747026823721541</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3268221343125433</v>
+        <v>0.8506683724855648</v>
       </c>
       <c r="N4">
-        <v>1.143622773648699</v>
+        <v>0.6069984701824023</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.725080035947343</v>
+        <v>2.072130619090842</v>
       </c>
       <c r="C5">
-        <v>0.2317873506584931</v>
+        <v>0.7525715559786761</v>
       </c>
       <c r="D5">
-        <v>0.06521463384248705</v>
+        <v>0.1550412428160541</v>
       </c>
       <c r="E5">
-        <v>0.08175782585947644</v>
+        <v>0.1276411167145639</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7978610902309384</v>
+        <v>1.030576935964646</v>
       </c>
       <c r="H5">
-        <v>0.8121567391399083</v>
+        <v>0.6082013303581277</v>
       </c>
       <c r="I5">
-        <v>0.5943673224641302</v>
+        <v>0.4646968946583954</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3169557691720541</v>
+        <v>0.8138166069748323</v>
       </c>
       <c r="N5">
-        <v>1.148213243699061</v>
+        <v>0.6190665231503498</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7207705303457885</v>
+        <v>2.056765113620827</v>
       </c>
       <c r="C6">
-        <v>0.2301917596261092</v>
+        <v>0.7469575123221546</v>
       </c>
       <c r="D6">
-        <v>0.06491123582472369</v>
+        <v>0.1538941092112935</v>
       </c>
       <c r="E6">
-        <v>0.08156381741032348</v>
+        <v>0.1267818480022171</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7965812963822003</v>
+        <v>1.024499683088976</v>
       </c>
       <c r="H6">
-        <v>0.8118394305222836</v>
+        <v>0.6057377536066042</v>
       </c>
       <c r="I6">
-        <v>0.5941918997644677</v>
+        <v>0.4630566381184309</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3153198507294235</v>
+        <v>0.8077138388640677</v>
       </c>
       <c r="N6">
-        <v>1.148983385507606</v>
+        <v>0.6210900234390042</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7507002400291753</v>
+        <v>2.16357092292219</v>
       </c>
       <c r="C7">
-        <v>0.2412686397418895</v>
+        <v>0.7859936492467057</v>
       </c>
       <c r="D7">
-        <v>0.06702065822840098</v>
+        <v>0.1618768313522452</v>
       </c>
       <c r="E7">
-        <v>0.08291676560084227</v>
+        <v>0.1327754715732858</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8055285256353386</v>
+        <v>1.066933413092656</v>
       </c>
       <c r="H7">
-        <v>0.8140921441710702</v>
+        <v>0.6229768524267172</v>
       </c>
       <c r="I7">
-        <v>0.5954506907525641</v>
+        <v>0.4745662980419141</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.326688912823947</v>
+        <v>0.8501702442925492</v>
       </c>
       <c r="N7">
-        <v>1.143684152671735</v>
+        <v>0.6071598995320802</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8831989790732564</v>
+        <v>2.639296825802717</v>
       </c>
       <c r="C8">
-        <v>0.2901951782383492</v>
+        <v>0.9602378348077423</v>
       </c>
       <c r="D8">
-        <v>0.07641685083952154</v>
+        <v>0.1976719574772119</v>
       </c>
       <c r="E8">
-        <v>0.08904506064516937</v>
+        <v>0.1600323207016388</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8466072547403201</v>
+        <v>1.260999249821509</v>
       </c>
       <c r="H8">
-        <v>0.8252805235282494</v>
+        <v>0.7027751463172649</v>
       </c>
       <c r="I8">
-        <v>0.6020286790651781</v>
+        <v>0.5286816421452087</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3772091885654518</v>
+        <v>1.04025198847453</v>
       </c>
       <c r="N8">
-        <v>1.121450208322694</v>
+        <v>0.548652672873267</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.144610042185093</v>
+        <v>3.59497960431321</v>
       </c>
       <c r="C9">
-        <v>0.3863486459703722</v>
+        <v>1.312194556424913</v>
       </c>
       <c r="D9">
-        <v>0.09516833612130426</v>
+        <v>0.2706094138804787</v>
       </c>
       <c r="E9">
-        <v>0.1016477395342221</v>
+        <v>0.2172695208712909</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9330154245565154</v>
+        <v>1.672533324179227</v>
       </c>
       <c r="H9">
-        <v>0.8517492849637733</v>
+        <v>0.8756675237260652</v>
       </c>
       <c r="I9">
-        <v>0.6186513605328656</v>
+        <v>0.6493756631796188</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4775910859238763</v>
+        <v>1.426498850128709</v>
       </c>
       <c r="N9">
-        <v>1.082007065851856</v>
+        <v>0.4457791971376821</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.337708169686266</v>
+        <v>4.318524968457382</v>
       </c>
       <c r="C10">
-        <v>0.4571670742202514</v>
+        <v>1.580441832312374</v>
       </c>
       <c r="D10">
-        <v>0.1091548333229753</v>
+        <v>0.326621867690136</v>
       </c>
       <c r="E10">
-        <v>0.1112809510768997</v>
+        <v>0.2625921049319473</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.000184415159566</v>
+        <v>2.000767477562562</v>
       </c>
       <c r="H10">
-        <v>0.8740022600259181</v>
+        <v>1.015954644588106</v>
       </c>
       <c r="I10">
-        <v>0.6331794395959207</v>
+        <v>0.7497589628806267</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5521979964106265</v>
+        <v>1.722508734756005</v>
       </c>
       <c r="N10">
-        <v>1.055582499845588</v>
+        <v>0.3787234616616928</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.425796951753512</v>
+        <v>4.654258981152395</v>
       </c>
       <c r="C11">
-        <v>0.4894328082815491</v>
+        <v>1.705452316956098</v>
       </c>
       <c r="D11">
-        <v>0.1155657445505653</v>
+        <v>0.3528222660472551</v>
       </c>
       <c r="E11">
-        <v>0.1157483972780753</v>
+        <v>0.284170373578057</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.031567299499017</v>
+        <v>2.157506421338468</v>
       </c>
       <c r="H11">
-        <v>0.8847452899994437</v>
+        <v>1.083492297235125</v>
       </c>
       <c r="I11">
-        <v>0.6403014630517774</v>
+        <v>0.798692798435205</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.586337358429688</v>
+        <v>1.860860291676474</v>
       </c>
       <c r="N11">
-        <v>1.044120241954776</v>
+        <v>0.3504028805650705</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.459190501041064</v>
+        <v>4.782523970605894</v>
       </c>
       <c r="C12">
-        <v>0.501658932514772</v>
+        <v>1.753304048317204</v>
       </c>
       <c r="D12">
-        <v>0.1180005245195304</v>
+        <v>0.3628655326900656</v>
       </c>
       <c r="E12">
-        <v>0.1174526562463285</v>
+        <v>0.2925038715857937</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.043572118689696</v>
+        <v>2.218099464532344</v>
       </c>
       <c r="H12">
-        <v>0.8889033318841371</v>
+        <v>1.109682494996377</v>
       </c>
       <c r="I12">
-        <v>0.6430729588099666</v>
+        <v>0.8177623942315506</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5992947394345691</v>
+        <v>1.913880946016704</v>
       </c>
       <c r="N12">
-        <v>1.039860485691165</v>
+        <v>0.3400249870807315</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.451996980326044</v>
+        <v>4.754846406507511</v>
       </c>
       <c r="C13">
-        <v>0.4990254619008283</v>
+        <v>1.742974048909559</v>
       </c>
       <c r="D13">
-        <v>0.1174758326027785</v>
+        <v>0.3606968062680096</v>
       </c>
       <c r="E13">
-        <v>0.117085051712543</v>
+        <v>0.2907014664008543</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.040981264106648</v>
+        <v>2.204991566122942</v>
       </c>
       <c r="H13">
-        <v>0.8880038135993118</v>
+        <v>1.104013218423916</v>
       </c>
       <c r="I13">
-        <v>0.642472740350776</v>
+        <v>0.8136302239455233</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5965028096115077</v>
+        <v>1.902432272508406</v>
       </c>
       <c r="N13">
-        <v>1.040774301646863</v>
+        <v>0.3422440778833113</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.428543529042088</v>
+        <v>4.664787648240974</v>
       </c>
       <c r="C14">
-        <v>0.4904384993213284</v>
+        <v>1.709378305836196</v>
       </c>
       <c r="D14">
-        <v>0.1157659120656547</v>
+        <v>0.3536459792218523</v>
       </c>
       <c r="E14">
-        <v>0.1158883549000009</v>
+        <v>0.2848525731628371</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.032552511621532</v>
+        <v>2.162465543027565</v>
       </c>
       <c r="H14">
-        <v>0.8850855688809816</v>
+        <v>1.085634155259669</v>
       </c>
       <c r="I14">
-        <v>0.6405279774434831</v>
+        <v>0.8002504256096543</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5874027735338672</v>
+        <v>1.865209096798665</v>
       </c>
       <c r="N14">
-        <v>1.043768168229292</v>
+        <v>0.3495419392372199</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.414182352111425</v>
+        <v>4.609777000689974</v>
       </c>
       <c r="C15">
-        <v>0.4851797690985791</v>
+        <v>1.688869430549005</v>
       </c>
       <c r="D15">
-        <v>0.1147194663761155</v>
+        <v>0.349343578117157</v>
       </c>
       <c r="E15">
-        <v>0.1151569840754973</v>
+        <v>0.2812918627648813</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.027405443846817</v>
+        <v>2.136584017099295</v>
       </c>
       <c r="H15">
-        <v>0.8833097877864589</v>
+        <v>1.074459117450431</v>
       </c>
       <c r="I15">
-        <v>0.6393464837948315</v>
+        <v>0.792127371218271</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5818326086043584</v>
+        <v>1.842494009695244</v>
       </c>
       <c r="N15">
-        <v>1.045612527839097</v>
+        <v>0.3540582516426056</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.331956395721988</v>
+        <v>4.296731616723321</v>
       </c>
       <c r="C16">
-        <v>0.4550594904988543</v>
+        <v>1.572339065465542</v>
       </c>
       <c r="D16">
-        <v>0.108736851539291</v>
+        <v>0.3249256042496995</v>
       </c>
       <c r="E16">
-        <v>0.1109907318600776</v>
+        <v>0.2612032354751292</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9981502744867612</v>
+        <v>1.990687797739724</v>
       </c>
       <c r="H16">
-        <v>0.8733127166123893</v>
+        <v>1.01162238403478</v>
       </c>
       <c r="I16">
-        <v>0.6327243882448528</v>
+        <v>0.7466325299278012</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.549971002609638</v>
+        <v>1.713549625982765</v>
       </c>
       <c r="N16">
-        <v>1.056342860571281</v>
+        <v>0.3806209000329233</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.281577276372275</v>
+        <v>4.106498732754858</v>
       </c>
       <c r="C17">
-        <v>0.4365949176651611</v>
+        <v>1.501671942662597</v>
       </c>
       <c r="D17">
-        <v>0.1050792091240851</v>
+        <v>0.3101426475266607</v>
       </c>
       <c r="E17">
-        <v>0.1084569004234339</v>
+        <v>0.2491417499067623</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9804163801074139</v>
+        <v>1.903202097015679</v>
       </c>
       <c r="H17">
-        <v>0.8673391598455282</v>
+        <v>0.9740808368690352</v>
       </c>
       <c r="I17">
-        <v>0.628793904761082</v>
+        <v>0.7196068083998526</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5304767663053127</v>
+        <v>1.635459020245492</v>
       </c>
       <c r="N17">
-        <v>1.063068914464669</v>
+        <v>0.3974973076492496</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.252623792523025</v>
+        <v>3.99768987235251</v>
       </c>
       <c r="C18">
-        <v>0.4259792612343176</v>
+        <v>1.461301267088174</v>
       </c>
       <c r="D18">
-        <v>0.1029799749822899</v>
+        <v>0.3017064423683564</v>
       </c>
       <c r="E18">
-        <v>0.107007515077008</v>
+        <v>0.2422931143780431</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9702940791732715</v>
+        <v>1.853569876421432</v>
       </c>
       <c r="H18">
-        <v>0.8639616449789855</v>
+        <v>0.9528327425311147</v>
       </c>
       <c r="I18">
-        <v>0.6265814471496043</v>
+        <v>0.7043653831478665</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5192830056827091</v>
+        <v>1.590884569038479</v>
       </c>
       <c r="N18">
-        <v>1.066990095373878</v>
+        <v>0.4074075071148435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.24282461461604</v>
+        <v>3.960948313343124</v>
       </c>
       <c r="C19">
-        <v>0.4223857679136245</v>
+        <v>1.447677331163391</v>
       </c>
       <c r="D19">
-        <v>0.1022699864594188</v>
+        <v>0.2988610015579241</v>
       </c>
       <c r="E19">
-        <v>0.1065181450623172</v>
+        <v>0.2399888550589324</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.9668801430184999</v>
+        <v>1.836878407295188</v>
       </c>
       <c r="H19">
-        <v>0.862828070420278</v>
+        <v>0.9456954457674556</v>
       </c>
       <c r="I19">
-        <v>0.6258406116075506</v>
+        <v>0.6992549763903924</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5154961986340822</v>
+        <v>1.575848229492948</v>
       </c>
       <c r="N19">
-        <v>1.06832674867864</v>
+        <v>0.4107969291779376</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.286937808353912</v>
+        <v>4.12668516875209</v>
       </c>
       <c r="C20">
-        <v>0.4385600146027286</v>
+        <v>1.50916552471034</v>
       </c>
       <c r="D20">
-        <v>0.1054680999276201</v>
+        <v>0.3117093050335171</v>
       </c>
       <c r="E20">
-        <v>0.1087258003764404</v>
+        <v>0.2504163596063833</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.9822961217801378</v>
+        <v>1.91244279683329</v>
       </c>
       <c r="H20">
-        <v>0.8679690143495407</v>
+        <v>0.9780409638219396</v>
       </c>
       <c r="I20">
-        <v>0.6292073120701076</v>
+        <v>0.7224519031469896</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.532550009082982</v>
+        <v>1.643735912405901</v>
       </c>
       <c r="N20">
-        <v>1.062347474388535</v>
+        <v>0.3956795183245774</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.435431387366009</v>
+        <v>4.691207856562983</v>
       </c>
       <c r="C21">
-        <v>0.4929604821854809</v>
+        <v>1.719231542828652</v>
       </c>
       <c r="D21">
-        <v>0.1162679630931649</v>
+        <v>0.3557135174104644</v>
       </c>
       <c r="E21">
-        <v>0.1162395113821972</v>
+        <v>0.2865659219397898</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.035024947365883</v>
+        <v>2.17492134783032</v>
       </c>
       <c r="H21">
-        <v>0.8859402826628298</v>
+        <v>1.091015145312639</v>
       </c>
       <c r="I21">
-        <v>0.6410971724178225</v>
+        <v>0.8041651597778881</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5900748668885996</v>
+        <v>1.876124499021742</v>
       </c>
       <c r="N21">
-        <v>1.042886601802635</v>
+        <v>0.3473886962625841</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.532692074913371</v>
+        <v>5.066843718456255</v>
       </c>
       <c r="C22">
-        <v>0.5285600253384928</v>
+        <v>1.859559284898864</v>
       </c>
       <c r="D22">
-        <v>0.1233677938461852</v>
+        <v>0.3851926127282326</v>
       </c>
       <c r="E22">
-        <v>0.1212233439705344</v>
+        <v>0.3111513343688301</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.070191269799636</v>
+        <v>2.353787176136507</v>
       </c>
       <c r="H22">
-        <v>0.8982098355002393</v>
+        <v>1.16848100910974</v>
       </c>
       <c r="I22">
-        <v>0.6493027146487904</v>
+        <v>0.8607525705693604</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.627843253693058</v>
+        <v>2.031731184845739</v>
       </c>
       <c r="N22">
-        <v>1.030638697033595</v>
+        <v>0.3178657951779655</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.480762637146142</v>
+        <v>4.865681316874884</v>
       </c>
       <c r="C23">
-        <v>0.5095555007423513</v>
+        <v>1.784355022976058</v>
       </c>
       <c r="D23">
-        <v>0.1195746338030403</v>
+        <v>0.369386568865707</v>
       </c>
       <c r="E23">
-        <v>0.1185565902196899</v>
+        <v>0.2979329647684139</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.051357227201862</v>
+        <v>2.257590393485543</v>
       </c>
       <c r="H23">
-        <v>0.8916131284816231</v>
+        <v>1.126774489654821</v>
       </c>
       <c r="I23">
-        <v>0.6448832245247118</v>
+        <v>0.8302342172981341</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6076695167069488</v>
+        <v>1.948303810612856</v>
       </c>
       <c r="N23">
-        <v>1.037132395104564</v>
+        <v>0.3334243575192133</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.284514280306439</v>
+        <v>4.117557154720032</v>
       </c>
       <c r="C24">
-        <v>0.4376715947265666</v>
+        <v>1.505776882606369</v>
       </c>
       <c r="D24">
-        <v>0.1052922712162285</v>
+        <v>0.3110008251815941</v>
       </c>
       <c r="E24">
-        <v>0.1086042078419567</v>
+        <v>0.2498398434868889</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.9814460628529957</v>
+        <v>1.908263019460492</v>
       </c>
       <c r="H24">
-        <v>0.86768408036869</v>
+        <v>0.9762495527736235</v>
       </c>
       <c r="I24">
-        <v>0.6290202635642643</v>
+        <v>0.7211647188952526</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5316126533016501</v>
+        <v>1.639992937273348</v>
       </c>
       <c r="N24">
-        <v>1.06267346838758</v>
+        <v>0.3965006962581441</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.073714411993649</v>
+        <v>3.333276646730326</v>
       </c>
       <c r="C25">
-        <v>0.3603093929914394</v>
+        <v>1.215553723289077</v>
       </c>
       <c r="D25">
-        <v>0.09005954510001857</v>
+        <v>0.2505113514170745</v>
       </c>
       <c r="E25">
-        <v>0.09817396096432418</v>
+        <v>0.2012874866377601</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.9090011150524901</v>
+        <v>1.557211046853183</v>
       </c>
       <c r="H25">
-        <v>0.8440992916344499</v>
+        <v>0.8268242581744119</v>
       </c>
       <c r="I25">
-        <v>0.6137511959724549</v>
+        <v>0.6148916555492789</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.450288873531079</v>
+        <v>1.32017762611585</v>
       </c>
       <c r="N25">
-        <v>1.092230371868256</v>
+        <v>0.472214756334008</v>
       </c>
       <c r="O25">
         <v>0</v>
